--- a/upregulatedRCC_markers.xlsx
+++ b/upregulatedRCC_markers.xlsx
@@ -1,65 +1,455 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bifarin/Dropbox (Edison_Lab@UGA)/Projects/kidney_cancer/EXT_02_Emory_Cancer_Urine_Metabolomics/scripts_1/RCC_MLprediction/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E691BAFE-D00F-B34F-A7E5-81A20E375225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="29400" yWindow="2420" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>RT [min]</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>N,N-Diisopropylethylamine (DIPEA)</t>
-  </si>
-  <si>
-    <t>N-Acetyl-D-glucosaminate</t>
-  </si>
-  <si>
-    <t>C8 H19 N</t>
-  </si>
-  <si>
-    <t>C24 H43 N O12 P2 S</t>
-  </si>
-  <si>
-    <t>C6 H N O5</t>
-  </si>
-  <si>
-    <t>C8 H15 N O7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>ID no.</t>
+  </si>
+  <si>
+    <t>Retention Time (min)</t>
+  </si>
+  <si>
+    <t>m/z</t>
+  </si>
+  <si>
+    <t>Adduct Type</t>
+  </si>
+  <si>
+    <t>Mass error (ppm)</t>
+  </si>
+  <si>
+    <t>Theoretical</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <r>
+      <t>[M+H]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <t>Elemental Formula</t>
+  </si>
+  <si>
+    <t>Metabolite Identity</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Lys-Ile</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ibutylamine, N-butylisobutylamine, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>iisobutylamine (isomer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[M-H]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>2-mercaptobenzothiazole</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cetyl-glucosaminic acid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,23 +458,73 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -93,17 +533,117 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -111,10 +651,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -122,6 +725,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +779,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +811,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +863,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,128 +1056,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1480</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>1481</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>6.29</v>
-      </c>
-      <c r="E2">
-        <v>1481</v>
+      <c r="B3" s="9">
+        <v>8.83</v>
+      </c>
+      <c r="C3" s="11">
+        <v>260.19690000000003</v>
+      </c>
+      <c r="D3" s="11">
+        <v>260.19690000000003</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2101</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>2102</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>3.449</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B5" s="13">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C5" s="15">
+        <v>130.15899999999999</v>
+      </c>
+      <c r="D5" s="15">
+        <v>130.1591</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F5" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>5697</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6578</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C7" s="11">
+        <v>165.97900000000001</v>
+      </c>
+      <c r="D7" s="11">
+        <v>165.97839999999999</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11">
+        <v>-3.61</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>6594</v>
+      </c>
+      <c r="B9" s="13">
+        <v>6.89</v>
+      </c>
+      <c r="C9" s="15">
+        <v>236.07759999999999</v>
+      </c>
+      <c r="D9" s="15">
+        <v>236.07769999999999</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>5698</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>3.381</v>
-      </c>
-      <c r="E4">
-        <v>5698</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>6577</v>
-      </c>
-      <c r="B5">
-        <v>6578</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>0.832</v>
-      </c>
-      <c r="E5">
-        <v>6578</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>6593</v>
-      </c>
-      <c r="B6">
-        <v>6594</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>3.871</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+      <c r="B11" s="18">
+        <v>3.38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>630.19090000000006</v>
+      </c>
+      <c r="D11" s="2">
+        <v>630.18949999999995</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-2.64</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>